--- a/Баг репорты.xlsx
+++ b/Баг репорты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivano\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Liis\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BE377-7EF5-465D-9696-213CD91FC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E0C78-4276-4128-98DD-D9D6CC146FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Postman</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Высокий</t>
-  </si>
-  <si>
     <t>Пользователь должен иметь соответствующие разрешения и права доступа для удаления сообщения</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
 4. Выберите метод DELETE
 Во вкладке Authorization введите в поле Username значение "yourusername" и в поле Password значение "yourpassword"
 5. Нажмите на кнопку Send, чтобы отправить запрос</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -573,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -605,16 +605,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -638,21 +638,21 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="291.60000000000002" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="198" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -681,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -719,16 +719,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -790,21 +790,21 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
